--- a/data/trans_camb/P29_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P29_R-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>0.3812863376712827</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-6.529029240326412</v>
+        <v>-6.529029240326423</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-0.9251177430948165</v>
@@ -655,7 +655,7 @@
         <v>1.33596740315749</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>4.011761893071386</v>
+        <v>4.01176189307138</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-1.677909535203731</v>
@@ -664,7 +664,7 @@
         <v>0.8090062869396675</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-1.740962024276332</v>
+        <v>-1.740962024276344</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.617193257825865</v>
+        <v>-7.392458146047293</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.588911642306383</v>
+        <v>-4.502476002539816</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-11.80435842563948</v>
+        <v>-12.56081720233724</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.588688817582578</v>
+        <v>-5.508941396728594</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.42289404754708</v>
+        <v>-3.624665616204137</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.4538545902751457</v>
+        <v>-0.06561291575116532</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-5.501077365442296</v>
+        <v>-5.320081814610041</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.000455138986392</v>
+        <v>-3.057853526856042</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-5.431795599023719</v>
+        <v>-5.483409158227339</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.405494849095611</v>
+        <v>2.976478774257749</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.836660970206326</v>
+        <v>5.333787532461345</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.257703614680292</v>
+        <v>-1.55729635146823</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.588531054810077</v>
+        <v>3.972358704887941</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.754327296208237</v>
+        <v>5.955798517669991</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>8.156243855876394</v>
+        <v>8.54431528627104</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.39380274201151</v>
+        <v>2.117299119029555</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.404693840540244</v>
+        <v>4.342409129624126</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.110091788950802</v>
+        <v>1.816437255064102</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.006023353703213941</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.1031420446200639</v>
+        <v>-0.1031420446200641</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.03525938106122375</v>
@@ -760,7 +760,7 @@
         <v>0.05091825781626542</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1529018791072984</v>
+        <v>0.1529018791072982</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.03741549907592562</v>
@@ -769,7 +769,7 @@
         <v>0.01803993203825131</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.038821498801855</v>
+        <v>-0.03882149880185524</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1170283997323397</v>
+        <v>-0.1127358094118385</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.06982929371376857</v>
+        <v>-0.06826170131416999</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1805966465891883</v>
+        <v>-0.1945360896015554</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1972342910580572</v>
+        <v>-0.1921869577540712</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1219206611894643</v>
+        <v>-0.1264397833603765</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.01725119938705574</v>
+        <v>-0.003366206309012247</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1196406547094066</v>
+        <v>-0.114304944865018</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.06418494108486497</v>
+        <v>-0.06549351405550749</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1155301932936438</v>
+        <v>-0.119527072868849</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.0392329335063757</v>
+        <v>0.0505760927308531</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.0963362988690805</v>
+        <v>0.08855882182600142</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.02165999478485413</v>
+        <v>-0.02610914550104444</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1495335092453006</v>
+        <v>0.1660055269559889</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2483589018891952</v>
+        <v>0.2498776160017508</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3466235685672257</v>
+        <v>0.3638138861470205</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05533345222344851</v>
+        <v>0.04787937309743896</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.102017189680006</v>
+        <v>0.1020549288145278</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.04947322712060047</v>
+        <v>0.04230135533279326</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-4.211250147647605</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-2.116503639263667</v>
+        <v>-2.116503639263678</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-0.03857681649475642</v>
@@ -869,7 +869,7 @@
         <v>2.282141053348952</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>4.115990859300089</v>
+        <v>4.115990859300095</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-1.071479456174212</v>
@@ -878,7 +878,7 @@
         <v>-1.022151316314263</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.924888859032208</v>
+        <v>0.9248888590322302</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.229362033808211</v>
+        <v>-6.365372691139506</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.676361235427924</v>
+        <v>-8.560344677166766</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.300399392221776</v>
+        <v>-6.797370973040323</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.941774622046996</v>
+        <v>-3.786661594891357</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.928519482692613</v>
+        <v>-1.96377644563425</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02958420780844066</v>
+        <v>0.4625106731150986</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.224997518621778</v>
+        <v>-4.052994890819051</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-4.137457177288372</v>
+        <v>-4.229584659283843</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.396243054412288</v>
+        <v>-2.20130336404055</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.601527814696247</v>
+        <v>2.514110450677852</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2461098467085991</v>
+        <v>0.5650165236290854</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.300207788098353</v>
+        <v>2.324233214433165</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.183281696802065</v>
+        <v>4.436322064616368</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.484247152055718</v>
+        <v>6.572385066092629</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.0693483078513</v>
+        <v>7.951068757681448</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.31653301221058</v>
+        <v>2.194623615674318</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.949067179006863</v>
+        <v>2.386215192504949</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.018780428278303</v>
+        <v>4.19551386978868</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.06960627967049043</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.03498294783568991</v>
+        <v>-0.03498294783569009</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.001336533051946921</v>
@@ -974,7 +974,7 @@
         <v>0.07906709843256325</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1426026905489655</v>
+        <v>0.1426026905489657</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.02400905229739253</v>
@@ -983,7 +983,7 @@
         <v>-0.02290373769447954</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.02072434040412395</v>
+        <v>0.02072434040412445</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.09986828935395302</v>
+        <v>-0.1004850549382147</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1394091680083354</v>
+        <v>-0.1355928832662336</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.116136704825678</v>
+        <v>-0.1082199298768647</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1301119719657844</v>
+        <v>-0.1246025730697638</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.06322517957722271</v>
+        <v>-0.0637367412086427</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002109413093214988</v>
+        <v>0.0130036177719605</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.09218716952230051</v>
+        <v>-0.08781880690709679</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.08871806285579516</v>
+        <v>-0.09168340748751486</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.05260585956935916</v>
+        <v>-0.04668469867085522</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.04498464183741047</v>
+        <v>0.04348305122335175</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.004496043000434714</v>
+        <v>0.009732573555726891</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.03941258610355025</v>
+        <v>0.04037371586832614</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1559487268973432</v>
+        <v>0.167483301174967</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.240041304817829</v>
+        <v>0.2463136654159259</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3057483718743808</v>
+        <v>0.2949420520686593</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05335569670583395</v>
+        <v>0.05091720305649849</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.04472937087640194</v>
+        <v>0.05556900483500716</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.09396428942137665</v>
+        <v>0.09905326539710783</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>7.38718684438</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6.181844533281633</v>
+        <v>6.181844533281621</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>7.832474695906244</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.726529988502994</v>
+        <v>6.730800320104969</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.193612015136094</v>
+        <v>2.642531045033365</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3126543058893406</v>
+        <v>0.6513268965201042</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.181739609780124</v>
+        <v>3.006783193256779</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>6.582389315625456</v>
+        <v>6.553052218665131</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>12.60328112312695</v>
+        <v>12.87918718938945</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>6.474440731484591</v>
+        <v>6.25438072251594</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>5.564077420726051</v>
+        <v>5.302561470075862</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>7.796577097206257</v>
+        <v>8.27658385656161</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.54244118639949</v>
+        <v>17.71141713398343</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.0566970336376</v>
+        <v>12.96644873982185</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.71000009894532</v>
+        <v>12.54647547209427</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.10826069149689</v>
+        <v>12.11670097314599</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>15.53309781115736</v>
+        <v>15.30946898949253</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>21.3023543877323</v>
+        <v>21.54056013586451</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>13.55130231252244</v>
+        <v>13.15372064117341</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>12.4559891992176</v>
+        <v>12.63784571109622</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>15.12547439079473</v>
+        <v>15.38696234292053</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1514110697313268</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.1267058372036459</v>
+        <v>0.1267058372036457</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.4109102468088025</v>
@@ -1188,7 +1188,7 @@
         <v>0.5692549629184934</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9021714718900616</v>
+        <v>0.9021714718900613</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.2885877047085221</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1276293691322131</v>
+        <v>0.1297574664204646</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.04249732349716085</v>
+        <v>0.05279148184625139</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.006445631457110871</v>
+        <v>0.01196096054441682</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1492001697663028</v>
+        <v>0.1307219365930078</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3058355010103607</v>
+        <v>0.3072978521763066</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5768590962876327</v>
+        <v>0.6093916517039759</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1800856909403383</v>
+        <v>0.1736458677757195</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1592439152348332</v>
+        <v>0.1468534618787853</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2213805194269873</v>
+        <v>0.2313046477500347</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3811762824389698</v>
+        <v>0.3876345054698612</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2829429491210656</v>
+        <v>0.2872785301910527</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2547270236843788</v>
+        <v>0.2753030613742307</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.6968193521581039</v>
+        <v>0.7092139463595541</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.9348301845427363</v>
+        <v>0.8966654121769022</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.267766066784507</v>
+        <v>1.278532259631958</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.422266743407479</v>
+        <v>0.4114323195499451</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3940914141289183</v>
+        <v>0.395585606473135</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.4717922637351772</v>
+        <v>0.480754302837703</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>7.723934357055034</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>5.711865829446888</v>
+        <v>5.711865829446877</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.281912167332508</v>
+        <v>-1.298984923781896</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.097981730022105</v>
+        <v>1.09444289660612</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.499978275467639</v>
+        <v>-3.298185355079307</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.886817121409806</v>
+        <v>1.691591293934251</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>5.629454741887317</v>
+        <v>5.587470065618218</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.195289562433727</v>
+        <v>6.066148357573264</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.360807625584434</v>
+        <v>1.184082101471338</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>4.974594728348699</v>
+        <v>4.601927877193597</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.795744295586705</v>
+        <v>2.589625897121532</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.397797954557387</v>
+        <v>7.612492587267432</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.19352622627097</v>
+        <v>9.647930743565809</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.935855288653244</v>
+        <v>5.748883692692347</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.4714018044802</v>
+        <v>10.46746306017541</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>14.28049182972002</v>
+        <v>13.95386020192148</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>13.82069070358014</v>
+        <v>13.83301804463966</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>7.521001907249286</v>
+        <v>7.634667177459977</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>11.14672569896147</v>
+        <v>10.94823457994716</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>8.884255324453274</v>
+        <v>8.468689717154417</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.1835163836632065</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.135710754718169</v>
+        <v>0.1357107547181688</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.02127046303864974</v>
+        <v>-0.02238591973968153</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.01851539934482704</v>
+        <v>0.01805085489375071</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.05962972967111232</v>
+        <v>-0.05651665366951504</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.06035175603303547</v>
+        <v>0.05122405417712114</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1780015241745035</v>
+        <v>0.1826101569437867</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.199855451424649</v>
+        <v>0.1915011055367149</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03123168116585277</v>
+        <v>0.02737216106578301</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1129677715540888</v>
+        <v>0.1064554980954859</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.0640547565288006</v>
+        <v>0.05947094659805614</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.159556228451791</v>
+        <v>0.1419295542883342</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1895361850617682</v>
+        <v>0.1764025703311895</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.111257064084983</v>
+        <v>0.1082376929444693</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3860685384225086</v>
+        <v>0.3820066756789299</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.52629021397076</v>
+        <v>0.5187882455819067</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5113763931066932</v>
+        <v>0.5111280433379447</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1863323983323955</v>
+        <v>0.1891232887241364</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.278155311565597</v>
+        <v>0.2690633623415068</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2190043160342516</v>
+        <v>0.2101272195829999</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.05365161108945717</v>
+        <v>-0.02405488209757336</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.5121847039648061</v>
+        <v>-0.5729560110815314</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.723832664574531</v>
+        <v>-2.707151954043197</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.03780597043623</v>
+        <v>0.9978488321775435</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>3.993356744901302</v>
+        <v>3.903904662727135</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>6.597628316590375</v>
+        <v>6.49140499515104</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.8904024159451565</v>
+        <v>0.7959804175547456</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>2.133403840288193</v>
+        <v>2.187282996681732</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>2.265073857449148</v>
+        <v>2.366041579701585</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.795589732664514</v>
+        <v>4.706904195623369</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.104746479592537</v>
+        <v>4.22783833693768</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.128379133375587</v>
+        <v>2.228620339170622</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.220109018345079</v>
+        <v>5.281698929093441</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>8.090391256794364</v>
+        <v>8.374629971929192</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>10.66787915303086</v>
+        <v>10.61027157922848</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.397989563134558</v>
+        <v>4.407357990619409</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.621394399602521</v>
+        <v>5.475655071419415</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>5.647821032321111</v>
+        <v>5.742757328730919</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.0009879377974236557</v>
+        <v>-0.000409790660759582</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.009244813442025851</v>
+        <v>-0.009674483503124302</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.0469834326768751</v>
+        <v>-0.04651469103613257</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.03730478286551183</v>
+        <v>0.03789548266172307</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1443758169562618</v>
+        <v>0.1413032335927764</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2390964181373519</v>
+        <v>0.2324886392898762</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02114433697359209</v>
+        <v>0.01821004707021629</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.05003076006422229</v>
+        <v>0.0512214211129115</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.0528162761270048</v>
+        <v>0.05554512851197527</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.08481685501142783</v>
+        <v>0.08393540051589937</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.0726722519773591</v>
+        <v>0.07574810701313098</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.03802409321000559</v>
+        <v>0.03998912133416314</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2020863150051954</v>
+        <v>0.207577807373943</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3152952799593512</v>
+        <v>0.326387114176674</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4179975403665436</v>
+        <v>0.4174866226905976</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1070173151278727</v>
+        <v>0.1065976239687106</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1377947453071497</v>
+        <v>0.1335708706798779</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1379689967777956</v>
+        <v>0.1415285908733705</v>
       </c>
     </row>
     <row r="34">
